--- a/Azimuth Calculator/Results.xlsx
+++ b/Azimuth Calculator/Results.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="60" windowWidth="11295" windowHeight="5580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Arkusz3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -20,6 +21,7 @@
   <fonts count="1">
     <font>
       <name val="Calibri"/>
+      <charset val="238"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -50,7 +52,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -125,9 +127,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,7 +167,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -235,7 +237,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,10 +415,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -455,25 +457,684 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>123.123</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>456.159</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>789.123</v>
+        <v>78</v>
       </c>
       <c r="D2" t="n">
-        <v>741.852</v>
+        <v>55</v>
       </c>
       <c r="E2" t="n">
-        <v>724.6900000000001</v>
+        <v>87.98</v>
       </c>
       <c r="F2" t="n">
-        <v>23.217806</v>
+        <v>31.522177</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56</v>
+      </c>
+      <c r="E3" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>32.938691</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>72</v>
+      </c>
+      <c r="D4" t="n">
+        <v>57</v>
+      </c>
+      <c r="E4" t="n">
+        <v>81.27</v>
+      </c>
+      <c r="F4" t="n">
+        <v>34.472214</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>69</v>
+      </c>
+      <c r="D5" t="n">
+        <v>58</v>
+      </c>
+      <c r="E5" t="n">
+        <v>78.01000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>36.135377</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>66</v>
+      </c>
+      <c r="D6" t="n">
+        <v>59</v>
+      </c>
+      <c r="E6" t="n">
+        <v>74.81</v>
+      </c>
+      <c r="F6" t="n">
+        <v>37.942153</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>63</v>
+      </c>
+      <c r="D7" t="n">
+        <v>60</v>
+      </c>
+      <c r="E7" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>39.907885</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>60</v>
+      </c>
+      <c r="D8" t="n">
+        <v>61</v>
+      </c>
+      <c r="E8" t="n">
+        <v>68.68000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>42.049221</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>57</v>
+      </c>
+      <c r="D9" t="n">
+        <v>62</v>
+      </c>
+      <c r="E9" t="n">
+        <v>65.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>44.38394</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>54</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>63</v>
+      </c>
+      <c r="E10" t="n">
+        <v>74.28</v>
+      </c>
+      <c r="F10" t="n">
+        <v>133.363423</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>51</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>64</v>
+      </c>
+      <c r="E11" t="n">
+        <v>71.59</v>
+      </c>
+      <c r="F11" t="n">
+        <v>131.035345</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>48</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>65</v>
+      </c>
+      <c r="E12" t="n">
+        <v>69.03</v>
+      </c>
+      <c r="F12" t="n">
+        <v>128.53018</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>45</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>66</v>
+      </c>
+      <c r="E13" t="n">
+        <v>66.61</v>
+      </c>
+      <c r="F13" t="n">
+        <v>125.837653</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>67</v>
+      </c>
+      <c r="E14" t="n">
+        <v>64.34999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>122.949215</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>68</v>
+      </c>
+      <c r="E15" t="n">
+        <v>62.27</v>
+      </c>
+      <c r="F15" t="n">
+        <v>119.859016</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>69</v>
+      </c>
+      <c r="E16" t="n">
+        <v>60.37</v>
+      </c>
+      <c r="F16" t="n">
+        <v>116.565051</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" t="n">
+        <v>70</v>
+      </c>
+      <c r="E17" t="n">
+        <v>58.69</v>
+      </c>
+      <c r="F17" t="n">
+        <v>113.070412</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>54</v>
+      </c>
+      <c r="B18" t="n">
+        <v>71</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>80.28</v>
+      </c>
+      <c r="F18" t="n">
+        <v>230.559947</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>51</v>
+      </c>
+      <c r="B19" t="n">
+        <v>72</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>232.835525</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>48</v>
+      </c>
+      <c r="B20" t="n">
+        <v>73</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>75.45</v>
+      </c>
+      <c r="F20" t="n">
+        <v>235.25682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>45</v>
+      </c>
+      <c r="B21" t="n">
+        <v>74</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>12</v>
+      </c>
+      <c r="E21" t="n">
+        <v>73.25</v>
+      </c>
+      <c r="F21" t="n">
+        <v>237.828783</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42</v>
+      </c>
+      <c r="B22" t="n">
+        <v>75</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>13</v>
+      </c>
+      <c r="E22" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>240.554571</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39</v>
+      </c>
+      <c r="B23" t="n">
+        <v>76</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8</v>
+      </c>
+      <c r="D23" t="n">
+        <v>14</v>
+      </c>
+      <c r="E23" t="n">
+        <v>69.31999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>243.434949</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36</v>
+      </c>
+      <c r="B24" t="n">
+        <v>77</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>15</v>
+      </c>
+      <c r="E24" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="F24" t="n">
+        <v>246.467651</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33</v>
+      </c>
+      <c r="B25" t="n">
+        <v>78</v>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16</v>
+      </c>
+      <c r="E25" t="n">
+        <v>66.13</v>
+      </c>
+      <c r="F25" t="n">
+        <v>249.646771</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="n">
+        <v>71</v>
+      </c>
+      <c r="C26" t="n">
+        <v>78</v>
+      </c>
+      <c r="D26" t="n">
+        <v>9</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31</v>
+      </c>
+      <c r="F26" t="n">
+        <v>320.420595</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" t="n">
+        <v>72</v>
+      </c>
+      <c r="C27" t="n">
+        <v>75</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F27" t="n">
+        <v>318.871256</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="n">
+        <v>73</v>
+      </c>
+      <c r="C28" t="n">
+        <v>72</v>
+      </c>
+      <c r="D28" t="n">
+        <v>11</v>
+      </c>
+      <c r="E28" t="n">
+        <v>91.29000000000001</v>
+      </c>
+      <c r="F28" t="n">
+        <v>317.219656</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6</v>
+      </c>
+      <c r="B29" t="n">
+        <v>74</v>
+      </c>
+      <c r="C29" t="n">
+        <v>69</v>
+      </c>
+      <c r="D29" t="n">
+        <v>12</v>
+      </c>
+      <c r="E29" t="n">
+        <v>88.39</v>
+      </c>
+      <c r="F29" t="n">
+        <v>315.458356</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" t="n">
+        <v>75</v>
+      </c>
+      <c r="C30" t="n">
+        <v>66</v>
+      </c>
+      <c r="D30" t="n">
+        <v>13</v>
+      </c>
+      <c r="E30" t="n">
+        <v>85.59</v>
+      </c>
+      <c r="F30" t="n">
+        <v>313.579734</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>8</v>
+      </c>
+      <c r="B31" t="n">
+        <v>76</v>
+      </c>
+      <c r="C31" t="n">
+        <v>63</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14</v>
+      </c>
+      <c r="E31" t="n">
+        <v>82.88</v>
+      </c>
+      <c r="F31" t="n">
+        <v>311.576129</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>9</v>
+      </c>
+      <c r="B32" t="n">
+        <v>77</v>
+      </c>
+      <c r="C32" t="n">
+        <v>60</v>
+      </c>
+      <c r="D32" t="n">
+        <v>15</v>
+      </c>
+      <c r="E32" t="n">
+        <v>80.28</v>
+      </c>
+      <c r="F32" t="n">
+        <v>309.440053</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10</v>
+      </c>
+      <c r="B33" t="n">
+        <v>78</v>
+      </c>
+      <c r="C33" t="n">
+        <v>57</v>
+      </c>
+      <c r="D33" t="n">
+        <v>16</v>
+      </c>
+      <c r="E33" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>307.164475</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Azimuth Calculator/Results.xlsx
+++ b/Azimuth Calculator/Results.xlsx
@@ -472,7 +472,7 @@
         <v>87.98</v>
       </c>
       <c r="F2" t="n">
-        <v>31.522177</v>
+        <v>35.024641</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         <v>84.59999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>32.938691</v>
+        <v>36.598545</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         <v>81.27</v>
       </c>
       <c r="F4" t="n">
-        <v>34.472214</v>
+        <v>38.30246</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         <v>78.01000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>36.135377</v>
+        <v>40.150418</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>74.81</v>
       </c>
       <c r="F6" t="n">
-        <v>37.942153</v>
+        <v>42.157948</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         <v>71.7</v>
       </c>
       <c r="F7" t="n">
-        <v>39.907885</v>
+        <v>44.342094</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         <v>68.68000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>42.049221</v>
+        <v>46.721357</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         <v>65.76000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>44.38394</v>
+        <v>49.315489</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         <v>74.28</v>
       </c>
       <c r="F10" t="n">
-        <v>133.363423</v>
+        <v>148.181581</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         <v>71.59</v>
       </c>
       <c r="F11" t="n">
-        <v>131.035345</v>
+        <v>145.594828</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         <v>69.03</v>
       </c>
       <c r="F12" t="n">
-        <v>128.53018</v>
+        <v>142.811311</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         <v>66.61</v>
       </c>
       <c r="F13" t="n">
-        <v>125.837653</v>
+        <v>139.819614</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         <v>64.34999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>122.949215</v>
+        <v>136.610239</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         <v>62.27</v>
       </c>
       <c r="F15" t="n">
-        <v>119.859016</v>
+        <v>133.176685</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         <v>60.37</v>
       </c>
       <c r="F16" t="n">
-        <v>116.565051</v>
+        <v>129.516724</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         <v>58.69</v>
       </c>
       <c r="F17" t="n">
-        <v>113.070412</v>
+        <v>125.633791</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         <v>80.28</v>
       </c>
       <c r="F18" t="n">
-        <v>230.559947</v>
+        <v>256.177719</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         <v>77.8</v>
       </c>
       <c r="F19" t="n">
-        <v>232.835525</v>
+        <v>258.706139</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         <v>75.45</v>
       </c>
       <c r="F20" t="n">
-        <v>235.25682</v>
+        <v>261.396466</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         <v>73.25</v>
       </c>
       <c r="F21" t="n">
-        <v>237.828783</v>
+        <v>264.254203</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         <v>71.2</v>
       </c>
       <c r="F22" t="n">
-        <v>240.554571</v>
+        <v>267.282857</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         <v>69.31999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>243.434949</v>
+        <v>270.483276</v>
       </c>
     </row>
     <row r="24">
@@ -912,7 +912,7 @@
         <v>67.62</v>
       </c>
       <c r="F24" t="n">
-        <v>246.467651</v>
+        <v>273.852946</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         <v>66.13</v>
       </c>
       <c r="F25" t="n">
-        <v>249.646771</v>
+        <v>277.385301</v>
       </c>
     </row>
     <row r="26">
@@ -952,7 +952,7 @@
         <v>97.31</v>
       </c>
       <c r="F26" t="n">
-        <v>320.420595</v>
+        <v>356.022884</v>
       </c>
     </row>
     <row r="27">
@@ -972,7 +972,7 @@
         <v>94.26000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>318.871256</v>
+        <v>354.301396</v>
       </c>
     </row>
     <row r="28">
@@ -992,7 +992,7 @@
         <v>91.29000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>317.219656</v>
+        <v>352.466284</v>
       </c>
     </row>
     <row r="29">
@@ -1012,7 +1012,7 @@
         <v>88.39</v>
       </c>
       <c r="F29" t="n">
-        <v>315.458356</v>
+        <v>350.509285</v>
       </c>
     </row>
     <row r="30">
@@ -1032,7 +1032,7 @@
         <v>85.59</v>
       </c>
       <c r="F30" t="n">
-        <v>313.579734</v>
+        <v>348.421927</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         <v>82.88</v>
       </c>
       <c r="F31" t="n">
-        <v>311.576129</v>
+        <v>346.195699</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         <v>80.28</v>
       </c>
       <c r="F32" t="n">
-        <v>309.440053</v>
+        <v>343.822281</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         <v>77.8</v>
       </c>
       <c r="F33" t="n">
-        <v>307.164475</v>
+        <v>341.293861</v>
       </c>
     </row>
   </sheetData>
